--- a/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829FB638-F21F-489A-8FC6-DA229FB5B6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FC0DC-B5BC-4F90-B733-920BEB7AC9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色!$B$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,9 +38,6 @@
     <t>登录名</t>
   </si>
   <si>
-    <t>角色编码</t>
-  </si>
-  <si>
     <t>必填项</t>
   </si>
   <si>
@@ -51,19 +48,12 @@
   </si>
   <si>
     <t>登录名*</t>
-  </si>
-  <si>
-    <t>角色编码*</t>
   </si>
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>组织管理员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,6 +67,18 @@
   </si>
   <si>
     <t>TENANT_MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +443,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -470,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -478,13 +480,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -492,7 +494,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -524,26 +526,26 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +564,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -573,16 +575,16 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D485D092-7C95-4D4B-B464-216DF55E9E03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{D485D092-7C95-4D4B-B464-216DF55E9E03}">
       <formula1>"TENANT_ADMIN,TENANT_MEMBER"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FC0DC-B5BC-4F90-B733-920BEB7AC9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2D628-1B6F-44E5-B922-F0F4D33D1EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
+++ b/src/main/resources/templates/organizationMemberRoleTemplates.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2D628-1B6F-44E5-B922-F0F4D33D1EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -19,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色!$B$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>字段是否为必填项</t>
   </si>
@@ -54,38 +53,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>组织管理员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>administrator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>组织成员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TENANT_ADMIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签*</t>
+    <t>member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义角色编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码*</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -147,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -158,13 +165,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,32 +447,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="30.9" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -472,11 +480,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
@@ -488,9 +496,9 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -498,54 +506,62 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.2">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -560,17 +576,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="41.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -578,16 +594,23 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{D485D092-7C95-4D4B-B464-216DF55E9E03}">
-      <formula1>"TENANT_ADMIN,TENANT_MEMBER"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>README!$B$10:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>